--- a/Ecopulpers/Ecopulpers.xlsx
+++ b/Ecopulpers/Ecopulpers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Ecopulpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Ecopulpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DD66DA-4A08-45A0-8E4F-3942620AFB87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4979C3-E478-412F-BC69-5A183352DDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2070" yWindow="-15510" windowWidth="23250" windowHeight="12570" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -778,7 +778,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Z</t>
+    <t>Z,VA,S</t>
   </si>
 </sst>
 </file>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="F20" s="44">
         <v>0</v>

--- a/Ecopulpers/Ecopulpers.xlsx
+++ b/Ecopulpers/Ecopulpers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Ecopulpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Ecopulpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4979C3-E478-412F-BC69-5A183352DDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19E1A4-A5E9-4B4A-A55B-F421D98133DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E2" s="54">
         <f>main!C34</f>
-        <v>-2.3948125649223825E-4</v>
+        <v>-2.4945964217941489E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="E3" s="55">
         <f>main!C31</f>
-        <v>1.8259730775000002E-4</v>
+        <v>1.9020552890625005E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C2" s="51">
         <f>main!C27</f>
-        <v>0.93</v>
+        <v>0.96875000000000011</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C3" s="51">
         <f>main!C28</f>
-        <v>0.03</v>
+        <v>3.1250000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G2" s="49">
         <f>-main!C29</f>
-        <v>-5.0624999999999997E-5</v>
+        <v>-5.2734375000000006E-5</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>218</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G3" s="56">
         <f>main!C30</f>
-        <v>7.5744068400000001E-6</v>
+        <v>7.8900071250000009E-3</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>218</v>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="G4" s="52">
         <f>main!C33</f>
-        <v>0.03</v>
+        <v>3.1250000000000007E-2</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>218</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F2" s="51">
         <f>main!C32</f>
-        <v>9.2999999999999999E-2</v>
+        <v>9.6875000000000017E-2</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>218</v>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2921,7 +2921,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="40">
-        <v>6</v>
+        <v>6.2500000000000009</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="F20" s="44">
         <v>0</v>
       </c>
       <c r="G20" s="45">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H20" s="44">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>246</v>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C23" s="30">
         <f>C20*C17/C22</f>
-        <v>5.0624999999999997E-5</v>
+        <v>5.2734375000000006E-5</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C25" s="27">
         <f>C24*C6*C17</f>
-        <v>182.59730775000003</v>
+        <v>190.20552890625007</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>233</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="C26" s="27">
         <f>C24*3600/1000*C17/C12/C13*C14</f>
-        <v>7.57440684</v>
+        <v>7.8900071250000012</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>187</v>
@@ -3120,9 +3120,9 @@
       <c r="B27" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="26">
         <f>C17*C2/1000</f>
-        <v>0.93</v>
+        <v>0.96875000000000011</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>216</v>
@@ -3142,9 +3142,9 @@
       <c r="B28" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="26">
         <f>C17*C3/1000</f>
-        <v>0.03</v>
+        <v>3.1250000000000007E-2</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>216</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C29" s="32">
         <f>C23</f>
-        <v>5.0624999999999997E-5</v>
+        <v>5.2734375000000006E-5</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>227</v>
@@ -3187,8 +3187,8 @@
         <v>192</v>
       </c>
       <c r="C30" s="26">
-        <f>C26/1000000</f>
-        <v>7.5744068400000001E-6</v>
+        <f>C26/1000</f>
+        <v>7.8900071250000009E-3</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>216</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="C31" s="26">
         <f>C25/(10^6)</f>
-        <v>1.8259730775000002E-4</v>
+        <v>1.9020552890625005E-4</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>197</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C32" s="26">
         <f>C27/C16</f>
-        <v>9.2999999999999999E-2</v>
+        <v>9.6875000000000017E-2</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>216</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C33" s="26">
         <f>C4*C17/1000</f>
-        <v>0.03</v>
+        <v>3.1250000000000007E-2</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>216</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C34" s="31">
         <f>C15*C7*C17/C22</f>
-        <v>-2.3948125649223825E-4</v>
+        <v>-2.4945964217941489E-4</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>227</v>

--- a/Ecopulpers/Ecopulpers.xlsx
+++ b/Ecopulpers/Ecopulpers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Ecopulpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19E1A4-A5E9-4B4A-A55B-F421D98133DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F785F2F-AC76-4F23-BEEA-B4282C2CC519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -751,9 +751,6 @@
     <t>Maintenance expenses per machine per year</t>
   </si>
   <si>
-    <t>Increase in the use of oter services by High Rainfall</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t>Z,VA,S</t>
+  </si>
+  <si>
+    <t>Increase in the use of other services by High Rainfall</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>92</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E2" s="54">
         <f>main!C34</f>
-        <v>-2.4945964217941489E-4</v>
+        <v>-2.4187606905716062E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="E3" s="55">
         <f>main!C31</f>
-        <v>1.9020552890625005E-4</v>
+        <v>1.8442328082750006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C2" s="51">
         <f>main!C27</f>
-        <v>0.96875000000000011</v>
+        <v>93.93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C3" s="51">
         <f>main!C28</f>
-        <v>3.1250000000000007E-2</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G2" s="49">
         <f>-main!C29</f>
-        <v>-5.2734375000000006E-5</v>
+        <v>-5.1131249999999996E-3</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>218</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G3" s="56">
         <f>main!C30</f>
-        <v>7.8900071250000009E-3</v>
+        <v>0.76501509084000019</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>218</v>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="G4" s="52">
         <f>main!C33</f>
-        <v>3.1250000000000007E-2</v>
+        <v>3.03</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>218</v>
@@ -1836,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F2" s="51">
         <f>main!C32</f>
-        <v>9.6875000000000017E-2</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>218</v>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2600,16 +2600,16 @@
         <v>219</v>
       </c>
       <c r="F1" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>243</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>244</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>177</v>
@@ -2860,7 +2860,7 @@
         <v>211</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F14" s="20">
         <v>0.107</v>
@@ -2872,7 +2872,7 @@
         <v>1E-3</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -2921,7 +2921,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="40">
-        <v>6.2500000000000009</v>
+        <v>606</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F20" s="44">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C23" s="30">
         <f>C20*C17/C22</f>
-        <v>5.2734375000000006E-5</v>
+        <v>5.1131249999999996E-3</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C25" s="27">
         <f>C24*C6*C17</f>
-        <v>190.20552890625007</v>
+        <v>18442.328082750006</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>233</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="C26" s="27">
         <f>C24*3600/1000*C17/C12/C13*C14</f>
-        <v>7.8900071250000012</v>
+        <v>765.0150908400002</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>187</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C27" s="26">
         <f>C17*C2/1000</f>
-        <v>0.96875000000000011</v>
+        <v>93.93</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>216</v>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="C28" s="26">
         <f>C17*C3/1000</f>
-        <v>3.1250000000000007E-2</v>
+        <v>3.03</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>216</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C29" s="32">
         <f>C23</f>
-        <v>5.2734375000000006E-5</v>
+        <v>5.1131249999999996E-3</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>227</v>
@@ -3177,7 +3177,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K29" s="16"/>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C30" s="26">
         <f>C26/1000</f>
-        <v>7.8900071250000009E-3</v>
+        <v>0.76501509084000019</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>216</v>
@@ -3199,7 +3199,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K30" s="16"/>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="C31" s="26">
         <f>C25/(10^6)</f>
-        <v>1.9020552890625005E-4</v>
+        <v>1.8442328082750006E-2</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>197</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C32" s="26">
         <f>C27/C16</f>
-        <v>9.6875000000000017E-2</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>216</v>
@@ -3250,11 +3250,11 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="15" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C33" s="26">
         <f>C4*C17/1000</f>
-        <v>3.1250000000000007E-2</v>
+        <v>3.03</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>216</v>
@@ -3265,7 +3265,7 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K33" s="16"/>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C34" s="31">
         <f>C15*C7*C17/C22</f>
-        <v>-2.4945964217941489E-4</v>
+        <v>-2.4187606905716062E-2</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>227</v>
